--- a/GeometryBasedDecisions/data/df_newsCoded_ordinal.xlsx
+++ b/GeometryBasedDecisions/data/df_newsCoded_ordinal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Dropbox\PostDoc\Projects\geometryBasedDecisions\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F9956B9-9FD3-4581-A995-6AF2C29BB41A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{108F23D5-3DDB-4770-A651-46BFD11E46C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,10 +16,9 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$600</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$I$600</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2150,8 +2149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I600"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5997,11 +5996,11 @@
         <v>83</v>
       </c>
       <c r="G129" s="6">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="H129" s="6">
         <f t="shared" si="1"/>
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="I129" s="6">
         <v>1</v>
@@ -7391,7 +7390,7 @@
         <v>46</v>
       </c>
       <c r="E176" s="6">
-        <v>-1.3</v>
+        <v>2</v>
       </c>
       <c r="F176" s="5" t="s">
         <v>108</v>
@@ -7401,7 +7400,7 @@
       </c>
       <c r="H176" s="6">
         <f t="shared" si="2"/>
-        <v>-1.3</v>
+        <v>2</v>
       </c>
       <c r="I176" s="6">
         <v>1</v>
@@ -7929,20 +7928,20 @@
         <v>286</v>
       </c>
       <c r="E194" s="5">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="F194" s="5">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="G194" s="5">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="H194" s="6">
         <f t="shared" si="2"/>
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="I194" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
@@ -12711,14 +12710,14 @@
         <v>83</v>
       </c>
       <c r="F354">
-        <v>-1.3</v>
+        <v>2</v>
       </c>
       <c r="G354" s="2" t="s">
         <v>564</v>
       </c>
       <c r="H354" s="6">
         <f t="shared" si="5"/>
-        <v>-1.3</v>
+        <v>2</v>
       </c>
       <c r="I354" s="6">
         <v>2</v>
@@ -14502,14 +14501,14 @@
         <v>108</v>
       </c>
       <c r="F414">
-        <v>-1.3</v>
+        <v>2</v>
       </c>
       <c r="G414">
-        <v>3.88</v>
+        <v>5</v>
       </c>
       <c r="H414" s="6">
         <f t="shared" si="6"/>
-        <v>1.29</v>
+        <v>3.5</v>
       </c>
       <c r="I414" s="6">
         <v>0</v>
@@ -19158,11 +19157,11 @@
         <v>564</v>
       </c>
       <c r="G570" s="2">
-        <v>-2.2000000000000002</v>
+        <v>2</v>
       </c>
       <c r="H570" s="6">
         <f t="shared" si="8"/>
-        <v>-2.2000000000000002</v>
+        <v>2</v>
       </c>
       <c r="I570" s="6">
         <v>2</v>

--- a/GeometryBasedDecisions/data/df_newsCoded_ordinal.xlsx
+++ b/GeometryBasedDecisions/data/df_newsCoded_ordinal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Dropbox\PostDoc\Projects\geometryBasedDecisions\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{108F23D5-3DDB-4770-A651-46BFD11E46C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0558A325-FE43-49B8-A9B8-CFDD5463A084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1545" yWindow="3885" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2149,8 +2149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I600"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="B572" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C591" sqref="C591:D591"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2235,7 +2235,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" s="6">
         <v>1</v>
@@ -2245,7 +2245,7 @@
       </c>
       <c r="H3" s="6">
         <f>AVERAGE(E3:G3)</f>
-        <v>2.6666666666666665</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -2447,14 +2447,14 @@
         <v>2</v>
       </c>
       <c r="F10" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>83</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="I10" s="6">
         <v>1</v>
@@ -2474,7 +2474,7 @@
         <v>33</v>
       </c>
       <c r="E11" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>108</v>
@@ -2484,7 +2484,7 @@
       </c>
       <c r="H11" s="6">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="I11" s="6">
         <v>0</v>
@@ -2504,7 +2504,7 @@
         <v>35</v>
       </c>
       <c r="E12" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>108</v>
@@ -2514,7 +2514,7 @@
       </c>
       <c r="H12" s="6">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" s="6">
         <v>0</v>
@@ -2718,11 +2718,11 @@
         <v>2</v>
       </c>
       <c r="G19" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="I19" s="6">
         <v>0</v>
@@ -3127,7 +3127,7 @@
         <v>76</v>
       </c>
       <c r="E33" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F33" s="5">
         <v>2</v>
@@ -3137,7 +3137,7 @@
       </c>
       <c r="H33" s="6">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="I33" s="6">
         <v>1</v>
@@ -3157,7 +3157,7 @@
         <v>77</v>
       </c>
       <c r="E34" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>83</v>
@@ -3167,7 +3167,7 @@
       </c>
       <c r="H34" s="6">
         <f t="shared" si="0"/>
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="I34" s="6">
         <v>0</v>
@@ -3546,14 +3546,14 @@
         <v>2</v>
       </c>
       <c r="F47" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G47" s="6">
         <v>1</v>
       </c>
       <c r="H47" s="6">
         <f t="shared" si="0"/>
-        <v>1.6666666666666667</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="I47" s="6">
         <v>0</v>
@@ -3606,14 +3606,14 @@
         <v>83</v>
       </c>
       <c r="F49" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G49" s="5">
         <v>5</v>
       </c>
       <c r="H49" s="6">
         <f t="shared" si="0"/>
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="I49" s="6">
         <v>1</v>
@@ -3844,14 +3844,14 @@
         <v>83</v>
       </c>
       <c r="F57" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G57" s="6">
         <v>1</v>
       </c>
       <c r="H57" s="6">
         <f t="shared" si="0"/>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="I57" s="6">
         <v>1</v>
@@ -3997,11 +3997,11 @@
         <v>1</v>
       </c>
       <c r="G62" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H62" s="6">
         <f t="shared" si="0"/>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="I62" s="6">
         <v>2</v>
@@ -4080,7 +4080,7 @@
         <v>120</v>
       </c>
       <c r="E65" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F65" s="5" t="s">
         <v>83</v>
@@ -4090,7 +4090,7 @@
       </c>
       <c r="H65" s="6">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I65" s="6">
         <v>1</v>
@@ -4171,14 +4171,14 @@
         <v>2</v>
       </c>
       <c r="F68" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G68" s="6">
         <v>1</v>
       </c>
       <c r="H68" s="6">
         <f t="shared" ref="H68:H130" si="1">AVERAGE(E68:G68)</f>
-        <v>1.6666666666666667</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="I68" s="6">
         <v>0</v>
@@ -4231,14 +4231,14 @@
         <v>83</v>
       </c>
       <c r="F70" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G70" s="6">
         <v>5</v>
       </c>
       <c r="H70" s="6">
         <f t="shared" si="1"/>
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="I70" s="6">
         <v>1</v>
@@ -4288,7 +4288,7 @@
         <v>128</v>
       </c>
       <c r="E72" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F72" s="5" t="s">
         <v>108</v>
@@ -4298,7 +4298,7 @@
       </c>
       <c r="H72" s="6">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72" s="6">
         <v>2</v>
@@ -4324,11 +4324,11 @@
         <v>83</v>
       </c>
       <c r="G73" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H73" s="6">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73" s="6">
         <v>1</v>
@@ -4348,7 +4348,7 @@
         <v>131</v>
       </c>
       <c r="E74" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F74" s="6">
         <v>2</v>
@@ -4358,7 +4358,7 @@
       </c>
       <c r="H74" s="6">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="I74" s="6">
         <v>0</v>
@@ -4381,14 +4381,14 @@
         <v>83</v>
       </c>
       <c r="F75" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G75" s="6">
         <v>2</v>
       </c>
       <c r="H75" s="6">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="I75" s="6">
         <v>1</v>
@@ -4681,11 +4681,11 @@
         <v>2</v>
       </c>
       <c r="G85" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H85" s="6">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="I85" s="6">
         <v>1</v>
@@ -4705,7 +4705,7 @@
         <v>27</v>
       </c>
       <c r="E86" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F86" s="5" t="s">
         <v>83</v>
@@ -4715,7 +4715,7 @@
       </c>
       <c r="H86" s="6">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="I86" s="6">
         <v>1</v>
@@ -4795,7 +4795,7 @@
         <v>150</v>
       </c>
       <c r="E89" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F89" s="5" t="s">
         <v>83</v>
@@ -4805,7 +4805,7 @@
       </c>
       <c r="H89" s="6">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I89" s="6">
         <v>1</v>
@@ -4828,14 +4828,14 @@
         <v>564</v>
       </c>
       <c r="F90" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G90" s="6">
         <v>5</v>
       </c>
       <c r="H90" s="6">
         <f t="shared" si="1"/>
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="I90" s="6">
         <v>2</v>
@@ -4861,11 +4861,11 @@
         <v>3</v>
       </c>
       <c r="G91" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H91" s="6">
         <f t="shared" si="1"/>
-        <v>2.3333333333333335</v>
+        <v>2</v>
       </c>
       <c r="I91" s="6">
         <v>0</v>
@@ -4918,14 +4918,14 @@
         <v>2</v>
       </c>
       <c r="F93" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G93" s="5" t="s">
         <v>108</v>
       </c>
       <c r="H93" s="6">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="I93" s="6">
         <v>0</v>
@@ -4975,7 +4975,7 @@
         <v>37</v>
       </c>
       <c r="E95" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F95" s="5" t="s">
         <v>83</v>
@@ -4985,7 +4985,7 @@
       </c>
       <c r="H95" s="6">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I95" s="6">
         <v>1</v>
@@ -5068,14 +5068,14 @@
         <v>564</v>
       </c>
       <c r="F98" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G98" s="6">
         <v>3</v>
       </c>
       <c r="H98" s="6">
         <f t="shared" si="1"/>
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="I98" s="6">
         <v>2</v>
@@ -5095,7 +5095,7 @@
         <v>164</v>
       </c>
       <c r="E99" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F99" s="5" t="s">
         <v>83</v>
@@ -5105,7 +5105,7 @@
       </c>
       <c r="H99" s="6">
         <f t="shared" si="1"/>
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="I99" s="6">
         <v>1</v>
@@ -5160,11 +5160,11 @@
         <v>2</v>
       </c>
       <c r="G101" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H101" s="6">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="I101" s="6">
         <v>0</v>
@@ -5217,14 +5217,14 @@
         <v>83</v>
       </c>
       <c r="F103" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G103" s="5" t="s">
         <v>108</v>
       </c>
       <c r="H103" s="6">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I103" s="6">
         <v>1</v>
@@ -5303,7 +5303,7 @@
         <v>171</v>
       </c>
       <c r="E106" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F106" s="6">
         <v>3</v>
@@ -5313,7 +5313,7 @@
       </c>
       <c r="H106" s="6">
         <f t="shared" si="1"/>
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="I106" s="6">
         <v>1</v>
@@ -5339,11 +5339,11 @@
         <v>83</v>
       </c>
       <c r="G107" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H107" s="6">
         <f t="shared" si="1"/>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="I107" s="6">
         <v>1</v>
@@ -5396,14 +5396,14 @@
         <v>5</v>
       </c>
       <c r="F109" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G109" s="6">
         <v>2</v>
       </c>
       <c r="H109" s="6">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="I109" s="6">
         <v>0</v>
@@ -5423,7 +5423,7 @@
         <v>25</v>
       </c>
       <c r="E110" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F110" s="6">
         <v>2</v>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="H110" s="6">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="I110" s="6">
         <v>0</v>
@@ -5727,11 +5727,11 @@
         <v>2</v>
       </c>
       <c r="G120" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H120" s="6">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="I120" s="6">
         <v>0</v>
@@ -5754,14 +5754,14 @@
         <v>2</v>
       </c>
       <c r="F121" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G121" s="5" t="s">
         <v>564</v>
       </c>
       <c r="H121" s="6">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="I121" s="6">
         <v>2</v>
@@ -5874,14 +5874,14 @@
         <v>83</v>
       </c>
       <c r="F125" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G125" s="5" t="s">
         <v>83</v>
       </c>
       <c r="H125" s="6">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I125" s="6">
         <v>1</v>
@@ -5934,14 +5934,14 @@
         <v>2</v>
       </c>
       <c r="F127" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G127" s="5" t="s">
         <v>564</v>
       </c>
       <c r="H127" s="6">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="I127" s="6">
         <v>2</v>
@@ -5990,7 +5990,7 @@
         <v>202</v>
       </c>
       <c r="E129" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F129" s="5" t="s">
         <v>83</v>
@@ -6000,7 +6000,7 @@
       </c>
       <c r="H129" s="6">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="I129" s="6">
         <v>1</v>
@@ -6020,7 +6020,7 @@
         <v>203</v>
       </c>
       <c r="E130" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F130" s="6">
         <v>2</v>
@@ -6030,7 +6030,7 @@
       </c>
       <c r="H130" s="6">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="I130" s="6">
         <v>0</v>
@@ -6172,14 +6172,14 @@
         <v>5</v>
       </c>
       <c r="F135" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G135" s="5" t="s">
         <v>83</v>
       </c>
       <c r="H135" s="6">
         <f t="shared" si="2"/>
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="I135" s="6">
         <v>1</v>
@@ -6235,11 +6235,11 @@
         <v>3</v>
       </c>
       <c r="G137" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H137" s="6">
         <f t="shared" si="2"/>
-        <v>3.3333333333333335</v>
+        <v>3</v>
       </c>
       <c r="I137" s="6">
         <v>0</v>
@@ -6262,14 +6262,14 @@
         <v>5</v>
       </c>
       <c r="F138" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G138" s="6">
         <v>1</v>
       </c>
       <c r="H138" s="6">
         <f t="shared" si="2"/>
-        <v>2.6666666666666665</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="I138" s="6">
         <v>0</v>
@@ -6319,7 +6319,7 @@
         <v>102</v>
       </c>
       <c r="E140" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F140" s="6">
         <v>2</v>
@@ -6329,7 +6329,7 @@
       </c>
       <c r="H140" s="6">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="I140" s="6">
         <v>0</v>
@@ -6499,7 +6499,7 @@
         <v>224</v>
       </c>
       <c r="E146" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F146" s="6">
         <v>5</v>
@@ -6509,7 +6509,7 @@
       </c>
       <c r="H146" s="6">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="I146" s="6">
         <v>0</v>
@@ -6624,11 +6624,11 @@
         <v>5</v>
       </c>
       <c r="G150" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H150" s="6">
         <f t="shared" si="2"/>
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="I150" s="6">
         <v>2</v>
@@ -6943,7 +6943,7 @@
         <v>12</v>
       </c>
       <c r="E161" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F161" s="6">
         <v>2</v>
@@ -6953,7 +6953,7 @@
       </c>
       <c r="H161" s="6">
         <f t="shared" si="2"/>
-        <v>1.6666666666666667</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="I161" s="6">
         <v>0</v>
@@ -7097,11 +7097,11 @@
         <v>5</v>
       </c>
       <c r="G166" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H166" s="6">
         <f t="shared" si="2"/>
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="I166" s="6">
         <v>1</v>
@@ -7121,7 +7121,7 @@
         <v>256</v>
       </c>
       <c r="E167" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F167" s="6">
         <v>1</v>
@@ -7131,7 +7131,7 @@
       </c>
       <c r="H167" s="6">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="I167" s="6">
         <v>0</v>
@@ -7151,7 +7151,7 @@
         <v>46</v>
       </c>
       <c r="E168" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F168" s="6">
         <v>2</v>
@@ -7161,7 +7161,7 @@
       </c>
       <c r="H168" s="6">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="I168" s="6">
         <v>1</v>
@@ -7184,14 +7184,14 @@
         <v>2</v>
       </c>
       <c r="F169" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G169" s="5" t="s">
         <v>83</v>
       </c>
       <c r="H169" s="6">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="I169" s="6">
         <v>1</v>
@@ -7214,14 +7214,14 @@
         <v>5</v>
       </c>
       <c r="F170" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G170" s="5" t="s">
         <v>108</v>
       </c>
       <c r="H170" s="6">
         <f t="shared" si="2"/>
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="I170" s="6">
         <v>0</v>
@@ -7277,11 +7277,11 @@
         <v>108</v>
       </c>
       <c r="G172" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H172" s="6">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="I172" s="6">
         <v>0</v>
@@ -7363,14 +7363,14 @@
         <v>2</v>
       </c>
       <c r="F175" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G175" s="6">
         <v>1</v>
       </c>
       <c r="H175" s="6">
         <f t="shared" si="2"/>
-        <v>1.6666666666666667</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="I175" s="6">
         <v>0</v>
@@ -7390,7 +7390,7 @@
         <v>46</v>
       </c>
       <c r="E176" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F176" s="5" t="s">
         <v>108</v>
@@ -7400,7 +7400,7 @@
       </c>
       <c r="H176" s="6">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I176" s="6">
         <v>1</v>
@@ -7423,14 +7423,14 @@
         <v>564</v>
       </c>
       <c r="F177" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G177" s="5" t="s">
         <v>564</v>
       </c>
       <c r="H177" s="6">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I177" s="6">
         <v>2</v>
@@ -7453,14 +7453,14 @@
         <v>83</v>
       </c>
       <c r="F178" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G178" s="6">
         <v>3</v>
       </c>
       <c r="H178" s="6">
         <f t="shared" si="2"/>
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="I178" s="6">
         <v>1</v>
@@ -7569,7 +7569,7 @@
         <v>152</v>
       </c>
       <c r="E182" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F182" s="5">
         <v>5</v>
@@ -7579,7 +7579,7 @@
       </c>
       <c r="H182" s="6">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="I182" s="6">
         <v>0</v>
@@ -7599,7 +7599,7 @@
         <v>276</v>
       </c>
       <c r="E183" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F183" s="5">
         <v>5</v>
@@ -7609,7 +7609,7 @@
       </c>
       <c r="H183" s="6">
         <f t="shared" si="2"/>
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="I183" s="6">
         <v>1</v>
@@ -7658,7 +7658,7 @@
         <v>75</v>
       </c>
       <c r="E185" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F185" s="5" t="s">
         <v>564</v>
@@ -7668,7 +7668,7 @@
       </c>
       <c r="H185" s="6">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="I185" s="6">
         <v>2</v>
@@ -7784,11 +7784,11 @@
         <v>83</v>
       </c>
       <c r="G189" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H189" s="6">
         <f t="shared" si="2"/>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="I189" s="6">
         <v>1</v>
@@ -7814,11 +7814,11 @@
         <v>2</v>
       </c>
       <c r="G190" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H190" s="6">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="I190" s="6">
         <v>0</v>
@@ -7871,14 +7871,14 @@
         <v>83</v>
       </c>
       <c r="F192" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G192" s="6">
         <v>2</v>
       </c>
       <c r="H192" s="6">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="I192" s="6">
         <v>1</v>
@@ -7898,7 +7898,7 @@
         <v>37</v>
       </c>
       <c r="E193" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F193" s="5">
         <v>2</v>
@@ -7908,7 +7908,7 @@
       </c>
       <c r="H193" s="6">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="I193" s="6">
         <v>1</v>
@@ -7958,7 +7958,7 @@
         <v>144</v>
       </c>
       <c r="E195" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F195" s="5">
         <v>3</v>
@@ -7968,7 +7968,7 @@
       </c>
       <c r="H195" s="6">
         <f t="shared" si="2"/>
-        <v>3.3333333333333335</v>
+        <v>3</v>
       </c>
       <c r="I195" s="6">
         <v>0</v>
@@ -7988,7 +7988,7 @@
         <v>47</v>
       </c>
       <c r="E196" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F196" s="5">
         <v>2</v>
@@ -7998,7 +7998,7 @@
       </c>
       <c r="H196" s="6">
         <f t="shared" ref="H196:H259" si="3">AVERAGE(E196:G196)</f>
-        <v>3</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="I196" s="6">
         <v>0</v>
@@ -8024,11 +8024,11 @@
         <v>3</v>
       </c>
       <c r="G197" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H197" s="6">
         <f t="shared" si="3"/>
-        <v>3.3333333333333335</v>
+        <v>3</v>
       </c>
       <c r="I197" s="6">
         <v>0</v>
@@ -8048,7 +8048,7 @@
         <v>12</v>
       </c>
       <c r="E198" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F198" s="5">
         <v>2</v>
@@ -8058,7 +8058,7 @@
       </c>
       <c r="H198" s="6">
         <f t="shared" si="3"/>
-        <v>1.6666666666666667</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="I198" s="6">
         <v>0</v>
@@ -8138,7 +8138,7 @@
         <v>51</v>
       </c>
       <c r="E201" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F201" s="5">
         <v>5</v>
@@ -8148,7 +8148,7 @@
       </c>
       <c r="H201" s="6">
         <f t="shared" si="3"/>
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="I201" s="6">
         <v>1</v>
@@ -8198,7 +8198,7 @@
         <v>269</v>
       </c>
       <c r="E203" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F203" s="5">
         <v>5</v>
@@ -8208,7 +8208,7 @@
       </c>
       <c r="H203" s="6">
         <f t="shared" si="3"/>
-        <v>3.3333333333333335</v>
+        <v>3</v>
       </c>
       <c r="I203" s="6">
         <v>0</v>
@@ -8294,11 +8294,11 @@
         <v>2</v>
       </c>
       <c r="G206" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H206" s="6">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="I206" s="6">
         <v>1</v>
@@ -8324,11 +8324,11 @@
         <v>2</v>
       </c>
       <c r="G207" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H207" s="6">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="I207" s="6">
         <v>0</v>
@@ -8354,11 +8354,11 @@
         <v>2</v>
       </c>
       <c r="G208" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H208" s="6">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="I208" s="6">
         <v>1</v>
@@ -8381,14 +8381,14 @@
         <v>83</v>
       </c>
       <c r="F209" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G209" s="6">
         <v>5</v>
       </c>
       <c r="H209" s="6">
         <f t="shared" si="3"/>
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="I209" s="6">
         <v>1</v>
@@ -8411,14 +8411,14 @@
         <v>564</v>
       </c>
       <c r="F210" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G210" s="6">
         <v>2</v>
       </c>
       <c r="H210" s="6">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="I210" s="6">
         <v>2</v>
@@ -8444,11 +8444,11 @@
         <v>2</v>
       </c>
       <c r="G211" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H211" s="6">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="I211" s="6">
         <v>0</v>
@@ -8474,11 +8474,11 @@
         <v>5</v>
       </c>
       <c r="G212" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H212" s="6">
         <f t="shared" si="3"/>
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="I212" s="6">
         <v>1</v>
@@ -8616,7 +8616,7 @@
         <v>13</v>
       </c>
       <c r="E217" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F217" s="5">
         <v>2</v>
@@ -8626,7 +8626,7 @@
       </c>
       <c r="H217" s="6">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="I217" s="6">
         <v>0</v>
@@ -8646,7 +8646,7 @@
         <v>207</v>
       </c>
       <c r="E218" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F218" s="5">
         <v>1</v>
@@ -8656,7 +8656,7 @@
       </c>
       <c r="H218" s="6">
         <f t="shared" si="3"/>
-        <v>1.6666666666666667</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="I218" s="6">
         <v>0</v>
@@ -8742,11 +8742,11 @@
         <v>5</v>
       </c>
       <c r="G221" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H221" s="6">
         <f t="shared" si="3"/>
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="I221" s="6">
         <v>1</v>
@@ -8766,7 +8766,7 @@
         <v>13</v>
       </c>
       <c r="E222" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F222" s="5">
         <v>2</v>
@@ -8776,7 +8776,7 @@
       </c>
       <c r="H222" s="6">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="I222" s="6">
         <v>0</v>
@@ -8826,7 +8826,7 @@
         <v>125</v>
       </c>
       <c r="E224" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F224" s="5">
         <v>5</v>
@@ -8836,7 +8836,7 @@
       </c>
       <c r="H224" s="6">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="I224" s="6">
         <v>0</v>
@@ -8859,14 +8859,14 @@
         <v>2</v>
       </c>
       <c r="F225" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G225" s="5" t="s">
         <v>83</v>
       </c>
       <c r="H225" s="6">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="I225" s="6">
         <v>1</v>
@@ -8886,7 +8886,7 @@
         <v>13</v>
       </c>
       <c r="E226" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F226" s="5">
         <v>1</v>
@@ -8896,7 +8896,7 @@
       </c>
       <c r="H226" s="6">
         <f t="shared" si="3"/>
-        <v>2.6666666666666665</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="I226" s="6">
         <v>0</v>
@@ -8978,14 +8978,14 @@
         <v>1</v>
       </c>
       <c r="F229" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G229" s="5">
         <v>5</v>
       </c>
       <c r="H229" s="6">
         <f t="shared" si="3"/>
-        <v>2.6666666666666665</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="I229" s="6">
         <v>0</v>
@@ -9011,11 +9011,11 @@
         <v>83</v>
       </c>
       <c r="G230" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H230" s="6">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I230" s="6">
         <v>1</v>
@@ -9068,14 +9068,14 @@
         <v>5</v>
       </c>
       <c r="F232" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G232" s="5" t="s">
         <v>83</v>
       </c>
       <c r="H232" s="6">
         <f t="shared" si="3"/>
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="I232" s="6">
         <v>1</v>
@@ -9190,11 +9190,11 @@
         <v>5</v>
       </c>
       <c r="G236" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H236" s="6">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>3.6666666666666665</v>
       </c>
       <c r="I236" s="6">
         <v>2</v>
@@ -9214,7 +9214,7 @@
         <v>306</v>
       </c>
       <c r="E237" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F237" s="6">
         <v>2</v>
@@ -9224,7 +9224,7 @@
       </c>
       <c r="H237" s="6">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="I237" s="6">
         <v>0</v>
@@ -9250,11 +9250,11 @@
         <v>108</v>
       </c>
       <c r="G238" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H238" s="6">
         <f t="shared" si="3"/>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="I238" s="6">
         <v>0</v>
@@ -9307,14 +9307,14 @@
         <v>5</v>
       </c>
       <c r="F240" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G240" s="5" t="s">
         <v>83</v>
       </c>
       <c r="H240" s="6">
         <f t="shared" si="3"/>
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="I240" s="6">
         <v>1</v>
@@ -9337,14 +9337,14 @@
         <v>564</v>
       </c>
       <c r="F241" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G241" s="5" t="s">
         <v>564</v>
       </c>
       <c r="H241" s="6">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I241" s="6">
         <v>2</v>
@@ -9397,14 +9397,14 @@
         <v>3</v>
       </c>
       <c r="F243" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G243" s="6">
         <v>5</v>
       </c>
       <c r="H243" s="6">
         <f t="shared" si="3"/>
-        <v>3.3333333333333335</v>
+        <v>3</v>
       </c>
       <c r="I243" s="6">
         <v>0</v>
@@ -9456,14 +9456,14 @@
         <v>1</v>
       </c>
       <c r="F245" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G245" s="5" t="s">
         <v>564</v>
       </c>
       <c r="H245" s="6">
         <f t="shared" si="3"/>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="I245" s="6">
         <v>2</v>
@@ -9513,7 +9513,7 @@
         <v>316</v>
       </c>
       <c r="E247" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F247" s="6">
         <v>5</v>
@@ -9523,7 +9523,7 @@
       </c>
       <c r="H247" s="6">
         <f t="shared" si="3"/>
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="I247" s="6">
         <v>2</v>
@@ -9573,7 +9573,7 @@
         <v>55</v>
       </c>
       <c r="E249" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F249" s="6">
         <v>1</v>
@@ -9583,7 +9583,7 @@
       </c>
       <c r="H249" s="6">
         <f t="shared" si="3"/>
-        <v>1.6666666666666667</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="I249" s="6">
         <v>0</v>
@@ -9663,7 +9663,7 @@
         <v>149</v>
       </c>
       <c r="E252" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F252" s="5">
         <v>5</v>
@@ -9673,7 +9673,7 @@
       </c>
       <c r="H252" s="6">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="I252" s="6">
         <v>0</v>
@@ -9756,14 +9756,14 @@
         <v>108</v>
       </c>
       <c r="F255" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G255" s="6">
         <v>2</v>
       </c>
       <c r="H255" s="6">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="I255" s="6">
         <v>0</v>
@@ -9786,14 +9786,14 @@
         <v>5</v>
       </c>
       <c r="F256" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G256" s="6">
         <v>2</v>
       </c>
       <c r="H256" s="6">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="I256" s="6">
         <v>0</v>
@@ -9813,7 +9813,7 @@
         <v>223</v>
       </c>
       <c r="E257" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F257" s="5">
         <v>2</v>
@@ -9823,7 +9823,7 @@
       </c>
       <c r="H257" s="6">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="I257" s="6">
         <v>0</v>
@@ -9846,14 +9846,14 @@
         <v>1</v>
       </c>
       <c r="F258" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G258" s="6">
         <v>2</v>
       </c>
       <c r="H258" s="6">
         <f t="shared" si="3"/>
-        <v>1.6666666666666667</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="I258" s="6">
         <v>0</v>
@@ -9969,11 +9969,11 @@
         <v>5</v>
       </c>
       <c r="G262" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H262" s="6">
         <f t="shared" si="4"/>
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="I262" s="6">
         <v>1</v>
@@ -9996,14 +9996,14 @@
         <v>83</v>
       </c>
       <c r="F263" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G263" s="6">
         <v>5</v>
       </c>
       <c r="H263" s="6">
         <f t="shared" si="4"/>
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="I263" s="6">
         <v>1</v>
@@ -10056,14 +10056,14 @@
         <v>2</v>
       </c>
       <c r="F265" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G265" s="6">
         <v>3</v>
       </c>
       <c r="H265" s="6">
         <f t="shared" si="4"/>
-        <v>2.3333333333333335</v>
+        <v>2</v>
       </c>
       <c r="I265" s="6">
         <v>0</v>
@@ -10083,7 +10083,7 @@
         <v>12</v>
       </c>
       <c r="E266" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F266" s="5">
         <v>2</v>
@@ -10093,7 +10093,7 @@
       </c>
       <c r="H266" s="6">
         <f t="shared" si="4"/>
-        <v>1.6666666666666667</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="I266" s="6">
         <v>0</v>
@@ -10119,11 +10119,11 @@
         <v>83</v>
       </c>
       <c r="G267" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H267" s="6">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="I267" s="6">
         <v>1</v>
@@ -10143,7 +10143,7 @@
         <v>25</v>
       </c>
       <c r="E268" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F268" s="5">
         <v>1</v>
@@ -10153,7 +10153,7 @@
       </c>
       <c r="H268" s="6">
         <f t="shared" si="4"/>
-        <v>1.6666666666666667</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="I268" s="6">
         <v>0</v>
@@ -10205,14 +10205,14 @@
         <v>5</v>
       </c>
       <c r="F270" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G270" s="5" t="s">
         <v>83</v>
       </c>
       <c r="H270" s="6">
         <f t="shared" si="4"/>
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="I270" s="6">
         <v>1</v>
@@ -10526,7 +10526,7 @@
         <v>25</v>
       </c>
       <c r="E281" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F281" s="6">
         <v>2</v>
@@ -10536,7 +10536,7 @@
       </c>
       <c r="H281" s="6">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="I281" s="6">
         <v>0</v>
@@ -10556,7 +10556,7 @@
         <v>149</v>
       </c>
       <c r="E282" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F282" s="6">
         <v>1</v>
@@ -10566,7 +10566,7 @@
       </c>
       <c r="H282" s="6">
         <f t="shared" si="4"/>
-        <v>1.6666666666666667</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="I282" s="6">
         <v>0</v>
@@ -10645,7 +10645,7 @@
         <v>144</v>
       </c>
       <c r="E285" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F285" s="5" t="s">
         <v>83</v>
@@ -10655,7 +10655,7 @@
       </c>
       <c r="H285" s="6">
         <f t="shared" si="4"/>
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="I285" s="6">
         <v>1</v>
@@ -10734,7 +10734,7 @@
         <v>223</v>
       </c>
       <c r="E288" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F288" s="6">
         <v>1</v>
@@ -10744,7 +10744,7 @@
       </c>
       <c r="H288" s="6">
         <f t="shared" si="4"/>
-        <v>2.6666666666666665</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="I288" s="6">
         <v>0</v>
@@ -10794,7 +10794,7 @@
         <v>76</v>
       </c>
       <c r="E290" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F290" s="6">
         <v>2</v>
@@ -10804,7 +10804,7 @@
       </c>
       <c r="H290" s="6">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="I290" s="6">
         <v>1</v>
@@ -10830,11 +10830,11 @@
         <v>83</v>
       </c>
       <c r="G291" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H291" s="6">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I291" s="6">
         <v>1</v>
@@ -10857,14 +10857,14 @@
         <v>83</v>
       </c>
       <c r="F292" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G292" s="5" t="s">
         <v>83</v>
       </c>
       <c r="H292" s="6">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I292" s="6">
         <v>1</v>
@@ -10950,11 +10950,11 @@
         <v>2</v>
       </c>
       <c r="G295" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H295" s="6">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="I295" s="6">
         <v>2</v>
@@ -11004,7 +11004,7 @@
         <v>56</v>
       </c>
       <c r="E297" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F297" s="6">
         <v>5</v>
@@ -11014,7 +11014,7 @@
       </c>
       <c r="H297" s="6">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="I297" s="6">
         <v>0</v>
@@ -11034,7 +11034,7 @@
         <v>352</v>
       </c>
       <c r="E298" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F298" s="6">
         <v>5</v>
@@ -11044,7 +11044,7 @@
       </c>
       <c r="H298" s="6">
         <f t="shared" si="4"/>
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="I298" s="6">
         <v>2</v>
@@ -11153,7 +11153,7 @@
         <v>46</v>
       </c>
       <c r="E302" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F302" s="6">
         <v>3</v>
@@ -11163,7 +11163,7 @@
       </c>
       <c r="H302" s="6">
         <f t="shared" si="4"/>
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="I302" s="6">
         <v>1</v>
@@ -11216,14 +11216,14 @@
         <v>83</v>
       </c>
       <c r="F304" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G304" s="5" t="s">
         <v>83</v>
       </c>
       <c r="H304" s="6">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I304" s="6">
         <v>1</v>
@@ -11243,7 +11243,7 @@
         <v>47</v>
       </c>
       <c r="E305" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F305" s="5" t="s">
         <v>83</v>
@@ -11253,7 +11253,7 @@
       </c>
       <c r="H305" s="6">
         <f t="shared" si="4"/>
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="I305" s="6">
         <v>1</v>
@@ -11273,7 +11273,7 @@
         <v>356</v>
       </c>
       <c r="E306" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F306" s="6">
         <v>1</v>
@@ -11283,7 +11283,7 @@
       </c>
       <c r="H306" s="6">
         <f>AVERAGE(E306:G306)</f>
-        <v>1.6666666666666667</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="I306" s="6">
         <v>0</v>
@@ -11428,11 +11428,11 @@
         <v>564</v>
       </c>
       <c r="G311" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H311" s="6">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I311" s="6">
         <v>2</v>
@@ -11452,7 +11452,7 @@
         <v>8</v>
       </c>
       <c r="E312" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F312" s="6">
         <v>2</v>
@@ -11462,7 +11462,7 @@
       </c>
       <c r="H312" s="6">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="I312" s="6">
         <v>1</v>
@@ -11482,7 +11482,7 @@
         <v>8</v>
       </c>
       <c r="E313" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F313" s="6">
         <v>5</v>
@@ -11492,7 +11492,7 @@
       </c>
       <c r="H313" s="6">
         <f t="shared" si="4"/>
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="I313" s="6">
         <v>1</v>
@@ -11548,11 +11548,11 @@
         <v>83</v>
       </c>
       <c r="G315" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H315" s="6">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I315" s="6">
         <v>2</v>
@@ -11578,11 +11578,11 @@
         <v>5</v>
       </c>
       <c r="G316" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H316" s="6">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="I316" s="6">
         <v>0</v>
@@ -11605,14 +11605,14 @@
         <v>2</v>
       </c>
       <c r="F317" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G317" s="6">
         <v>5</v>
       </c>
       <c r="H317" s="6">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="I317" s="6">
         <v>0</v>
@@ -11667,11 +11667,11 @@
         <v>5</v>
       </c>
       <c r="G319" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H319" s="6">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3.6666666666666665</v>
       </c>
       <c r="I319" s="6">
         <v>0</v>
@@ -11691,7 +11691,7 @@
         <v>25</v>
       </c>
       <c r="E320" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F320" s="5">
         <v>5</v>
@@ -11701,7 +11701,7 @@
       </c>
       <c r="H320" s="6">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="I320" s="6">
         <v>0</v>
@@ -11754,14 +11754,14 @@
         <v>83</v>
       </c>
       <c r="F322" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G322" s="6">
         <v>2</v>
       </c>
       <c r="H322" s="6">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="I322" s="6">
         <v>1</v>
@@ -11811,7 +11811,7 @@
         <v>200</v>
       </c>
       <c r="E324" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F324" s="5">
         <v>2</v>
@@ -11821,7 +11821,7 @@
       </c>
       <c r="H324" s="6">
         <f t="shared" ref="H324:H386" si="5">AVERAGE(E324:G324)</f>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="I324" s="6">
         <v>1</v>
@@ -11900,7 +11900,7 @@
         <v>55</v>
       </c>
       <c r="E327" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F327" s="5">
         <v>5</v>
@@ -11910,7 +11910,7 @@
       </c>
       <c r="H327" s="6">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="I327" s="6">
         <v>0</v>
@@ -12021,14 +12021,14 @@
         <v>83</v>
       </c>
       <c r="F331" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G331" s="5" t="s">
         <v>83</v>
       </c>
       <c r="H331" s="6">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I331" s="6">
         <v>1</v>
@@ -12170,14 +12170,14 @@
         <v>564</v>
       </c>
       <c r="F336" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G336" s="6">
         <v>2</v>
       </c>
       <c r="H336" s="6">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="I336" s="6">
         <v>2</v>
@@ -12197,7 +12197,7 @@
         <v>8</v>
       </c>
       <c r="E337" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F337" s="5" t="s">
         <v>83</v>
@@ -12207,7 +12207,7 @@
       </c>
       <c r="H337" s="6">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I337" s="6">
         <v>1</v>
@@ -12227,7 +12227,7 @@
         <v>13</v>
       </c>
       <c r="E338" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F338" s="6">
         <v>2</v>
@@ -12237,7 +12237,7 @@
       </c>
       <c r="H338" s="6">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="I338" s="6">
         <v>0</v>
@@ -12260,14 +12260,14 @@
         <v>83</v>
       </c>
       <c r="F339" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G339" s="5" t="s">
         <v>83</v>
       </c>
       <c r="H339" s="6">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I339" s="6">
         <v>1</v>
@@ -12413,11 +12413,11 @@
         <v>108</v>
       </c>
       <c r="G344" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H344" s="6">
         <f t="shared" si="5"/>
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="I344" s="6">
         <v>0</v>
@@ -12527,7 +12527,7 @@
         <v>379</v>
       </c>
       <c r="E348">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F348" s="2" t="s">
         <v>83</v>
@@ -12537,7 +12537,7 @@
       </c>
       <c r="H348" s="6">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I348" s="6">
         <v>1</v>
@@ -12557,7 +12557,7 @@
         <v>25</v>
       </c>
       <c r="E349">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F349">
         <v>1</v>
@@ -12567,7 +12567,7 @@
       </c>
       <c r="H349" s="6">
         <f t="shared" si="5"/>
-        <v>1.6666666666666667</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="I349" s="6">
         <v>0</v>
@@ -12620,14 +12620,14 @@
         <v>2</v>
       </c>
       <c r="F351">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G351">
         <v>5</v>
       </c>
       <c r="H351" s="6">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="I351" s="6">
         <v>0</v>
@@ -12653,11 +12653,11 @@
         <v>2</v>
       </c>
       <c r="G352">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H352" s="6">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="I352" s="6">
         <v>0</v>
@@ -12710,14 +12710,14 @@
         <v>83</v>
       </c>
       <c r="F354">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G354" s="2" t="s">
         <v>564</v>
       </c>
       <c r="H354" s="6">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I354" s="6">
         <v>2</v>
@@ -12740,14 +12740,14 @@
         <v>5</v>
       </c>
       <c r="F355">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G355">
         <v>1</v>
       </c>
       <c r="H355" s="6">
         <f t="shared" si="5"/>
-        <v>2.6666666666666665</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="I355" s="6">
         <v>0</v>
@@ -12826,7 +12826,7 @@
         <v>386</v>
       </c>
       <c r="E358">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F358" s="2" t="s">
         <v>83</v>
@@ -12836,7 +12836,7 @@
       </c>
       <c r="H358" s="6">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I358" s="6">
         <v>2</v>
@@ -12886,7 +12886,7 @@
         <v>363</v>
       </c>
       <c r="E360">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F360" s="2">
         <v>2</v>
@@ -12896,7 +12896,7 @@
       </c>
       <c r="H360" s="6">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="I360" s="6">
         <v>0</v>
@@ -12919,14 +12919,14 @@
         <v>83</v>
       </c>
       <c r="F361">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G361">
         <v>5</v>
       </c>
       <c r="H361" s="6">
         <f t="shared" si="5"/>
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="I361" s="6">
         <v>1</v>
@@ -13071,11 +13071,11 @@
         <v>1</v>
       </c>
       <c r="G366">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H366" s="6">
         <f t="shared" si="5"/>
-        <v>1.6666666666666667</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="I366" s="6">
         <v>0</v>
@@ -13128,14 +13128,14 @@
         <v>83</v>
       </c>
       <c r="F368" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G368">
         <v>2</v>
       </c>
       <c r="H368" s="6">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="I368" s="6">
         <v>1</v>
@@ -13333,7 +13333,7 @@
         <v>25</v>
       </c>
       <c r="E375" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F375">
         <v>2</v>
@@ -13343,7 +13343,7 @@
       </c>
       <c r="H375" s="6">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="I375" s="6">
         <v>0</v>
@@ -13422,7 +13422,7 @@
         <v>9</v>
       </c>
       <c r="E378" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F378" s="2" t="s">
         <v>83</v>
@@ -13432,7 +13432,7 @@
       </c>
       <c r="H378" s="6">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I378" s="6">
         <v>1</v>
@@ -13458,11 +13458,11 @@
         <v>5</v>
       </c>
       <c r="G379">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H379" s="6">
         <f t="shared" si="5"/>
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="I379" s="6">
         <v>1</v>
@@ -13544,14 +13544,14 @@
         <v>1</v>
       </c>
       <c r="F382">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G382" s="2" t="s">
         <v>83</v>
       </c>
       <c r="H382" s="6">
         <f t="shared" si="5"/>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="I382" s="6">
         <v>1</v>
@@ -13574,14 +13574,14 @@
         <v>2</v>
       </c>
       <c r="F383">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G383" s="2" t="s">
         <v>564</v>
       </c>
       <c r="H383" s="6">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="I383" s="6">
         <v>1</v>
@@ -13601,7 +13601,7 @@
         <v>400</v>
       </c>
       <c r="E384" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F384">
         <v>5</v>
@@ -13611,7 +13611,7 @@
       </c>
       <c r="H384" s="6">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="I384" s="6">
         <v>0</v>
@@ -13634,14 +13634,14 @@
         <v>3</v>
       </c>
       <c r="F385">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G385" s="2" t="s">
         <v>83</v>
       </c>
       <c r="H385" s="6">
         <f t="shared" si="5"/>
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="I385" s="6">
         <v>1</v>
@@ -13664,14 +13664,14 @@
         <v>5</v>
       </c>
       <c r="F386">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G386">
         <v>5</v>
       </c>
       <c r="H386" s="6">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>3.6666666666666665</v>
       </c>
       <c r="I386" s="6">
         <v>0</v>
@@ -13720,7 +13720,7 @@
         <v>402</v>
       </c>
       <c r="E388" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F388" s="2" t="s">
         <v>83</v>
@@ -13730,7 +13730,7 @@
       </c>
       <c r="H388" s="6">
         <f t="shared" ref="H388:H451" si="6">AVERAGE(E388:G388)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I388" s="6">
         <v>2</v>
@@ -13750,7 +13750,7 @@
         <v>403</v>
       </c>
       <c r="E389" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F389">
         <v>5</v>
@@ -13760,7 +13760,7 @@
       </c>
       <c r="H389" s="6">
         <f t="shared" si="6"/>
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="I389" s="6">
         <v>1</v>
@@ -13816,11 +13816,11 @@
         <v>2</v>
       </c>
       <c r="G391">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H391" s="6">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="I391" s="6">
         <v>0</v>
@@ -13846,11 +13846,11 @@
         <v>2</v>
       </c>
       <c r="G392">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H392" s="6">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="I392" s="6">
         <v>0</v>
@@ -13873,14 +13873,14 @@
         <v>2</v>
       </c>
       <c r="F393">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G393">
         <v>2</v>
       </c>
       <c r="H393" s="6">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="I393" s="6">
         <v>0</v>
@@ -13936,11 +13936,11 @@
         <v>2</v>
       </c>
       <c r="G395">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H395" s="6">
         <f t="shared" si="6"/>
-        <v>1.6666666666666667</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="I395" s="6">
         <v>0</v>
@@ -14049,7 +14049,7 @@
         <v>91</v>
       </c>
       <c r="E399" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F399">
         <v>2</v>
@@ -14059,7 +14059,7 @@
       </c>
       <c r="H399" s="6">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="I399" s="6">
         <v>0</v>
@@ -14082,14 +14082,14 @@
         <v>83</v>
       </c>
       <c r="F400">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G400">
         <v>2</v>
       </c>
       <c r="H400" s="6">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="I400" s="6">
         <v>1</v>
@@ -14139,7 +14139,7 @@
         <v>269</v>
       </c>
       <c r="E402">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F402">
         <v>5</v>
@@ -14149,7 +14149,7 @@
       </c>
       <c r="H402" s="6">
         <f t="shared" si="6"/>
-        <v>3.3333333333333335</v>
+        <v>3</v>
       </c>
       <c r="I402" s="6">
         <v>0</v>
@@ -14202,14 +14202,14 @@
         <v>5</v>
       </c>
       <c r="F404">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G404">
         <v>2</v>
       </c>
       <c r="H404" s="6">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="I404" s="6">
         <v>0</v>
@@ -14232,14 +14232,14 @@
         <v>2</v>
       </c>
       <c r="F405">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G405">
         <v>3</v>
       </c>
       <c r="H405" s="6">
         <f t="shared" si="6"/>
-        <v>2.3333333333333335</v>
+        <v>2</v>
       </c>
       <c r="I405" s="6">
         <v>0</v>
@@ -14265,11 +14265,11 @@
         <v>108</v>
       </c>
       <c r="G406">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H406" s="6">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I406" s="6">
         <v>1</v>
@@ -14414,11 +14414,11 @@
         <v>83</v>
       </c>
       <c r="G411">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H411" s="6">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I411" s="6">
         <v>1</v>
@@ -14438,7 +14438,7 @@
         <v>381</v>
       </c>
       <c r="E412">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F412" s="2" t="s">
         <v>83</v>
@@ -14448,7 +14448,7 @@
       </c>
       <c r="H412" s="6">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I412" s="6">
         <v>1</v>
@@ -14501,14 +14501,14 @@
         <v>108</v>
       </c>
       <c r="F414">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G414">
         <v>5</v>
       </c>
       <c r="H414" s="6">
         <f t="shared" si="6"/>
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="I414" s="6">
         <v>0</v>
@@ -14650,14 +14650,14 @@
         <v>5</v>
       </c>
       <c r="F419">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G419">
         <v>2</v>
       </c>
       <c r="H419" s="6">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="I419" s="6">
         <v>0</v>
@@ -14795,7 +14795,7 @@
         <v>12</v>
       </c>
       <c r="E424">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F424" s="2" t="s">
         <v>83</v>
@@ -14805,7 +14805,7 @@
       </c>
       <c r="H424" s="6">
         <f t="shared" si="6"/>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="I424" s="6">
         <v>1</v>
@@ -14999,7 +14999,7 @@
         <v>432</v>
       </c>
       <c r="E431">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F431">
         <v>5</v>
@@ -15009,7 +15009,7 @@
       </c>
       <c r="H431" s="6">
         <f>AVERAGE(E431:G431)</f>
-        <v>3.3333333333333335</v>
+        <v>3</v>
       </c>
       <c r="I431" s="6">
         <v>0</v>
@@ -15147,7 +15147,7 @@
         <v>376</v>
       </c>
       <c r="E436">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F436" s="2" t="s">
         <v>83</v>
@@ -15157,7 +15157,7 @@
       </c>
       <c r="H436" s="6">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I436" s="6">
         <v>1</v>
@@ -15210,14 +15210,14 @@
         <v>2</v>
       </c>
       <c r="F438">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G438">
         <v>3</v>
       </c>
       <c r="H438" s="6">
         <f t="shared" si="6"/>
-        <v>2.3333333333333335</v>
+        <v>2</v>
       </c>
       <c r="I438" s="6">
         <v>0</v>
@@ -15240,14 +15240,14 @@
         <v>83</v>
       </c>
       <c r="F439">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G439" s="2" t="s">
         <v>108</v>
       </c>
       <c r="H439" s="6">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I439" s="6">
         <v>1</v>
@@ -15270,14 +15270,14 @@
         <v>2</v>
       </c>
       <c r="F440">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G440">
         <v>5</v>
       </c>
       <c r="H440" s="6">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="I440" s="6">
         <v>0</v>
@@ -15300,14 +15300,14 @@
         <v>83</v>
       </c>
       <c r="F441">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G441">
         <v>5</v>
       </c>
       <c r="H441" s="6">
         <f t="shared" si="6"/>
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="I441" s="6">
         <v>1</v>
@@ -15333,11 +15333,11 @@
         <v>83</v>
       </c>
       <c r="G442">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H442" s="6">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="I442" s="6">
         <v>1</v>
@@ -15389,14 +15389,14 @@
         <v>2</v>
       </c>
       <c r="F444">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G444">
         <v>5</v>
       </c>
       <c r="H444" s="6">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="I444" s="6">
         <v>0</v>
@@ -15416,7 +15416,7 @@
         <v>91</v>
       </c>
       <c r="E445" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F445">
         <v>2</v>
@@ -15426,7 +15426,7 @@
       </c>
       <c r="H445" s="6">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="I445" s="6">
         <v>0</v>
@@ -15452,11 +15452,11 @@
         <v>5</v>
       </c>
       <c r="G446">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H446" s="6">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="I446" s="6">
         <v>0</v>
@@ -15482,11 +15482,11 @@
         <v>3</v>
       </c>
       <c r="G447">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H447" s="6">
         <f t="shared" si="6"/>
-        <v>2.3333333333333335</v>
+        <v>2</v>
       </c>
       <c r="I447" s="6">
         <v>0</v>
@@ -15541,11 +15541,11 @@
         <v>2</v>
       </c>
       <c r="G449">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H449" s="6">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="I449" s="6">
         <v>0</v>
@@ -15655,7 +15655,7 @@
         <v>449</v>
       </c>
       <c r="E453" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F453">
         <v>5</v>
@@ -15665,7 +15665,7 @@
       </c>
       <c r="H453" s="6">
         <f t="shared" si="7"/>
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="I453" s="6">
         <v>1</v>
@@ -15746,14 +15746,14 @@
         <v>2</v>
       </c>
       <c r="F456">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G456">
         <v>1</v>
       </c>
       <c r="H456" s="6">
         <f t="shared" si="7"/>
-        <v>1.6666666666666667</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="I456" s="6">
         <v>0</v>
@@ -15805,14 +15805,14 @@
         <v>2</v>
       </c>
       <c r="F458">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G458">
         <v>2</v>
       </c>
       <c r="H458" s="6">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="I458" s="6">
         <v>0</v>
@@ -15832,7 +15832,7 @@
         <v>457</v>
       </c>
       <c r="E459">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F459">
         <v>2</v>
@@ -15842,7 +15842,7 @@
       </c>
       <c r="H459" s="6">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="I459" s="6">
         <v>2</v>
@@ -15922,7 +15922,7 @@
         <v>76</v>
       </c>
       <c r="E462" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F462">
         <v>5</v>
@@ -15932,7 +15932,7 @@
       </c>
       <c r="H462" s="6">
         <f t="shared" si="7"/>
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="I462" s="6">
         <v>1</v>
@@ -15982,7 +15982,7 @@
         <v>461</v>
       </c>
       <c r="E464" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F464">
         <v>1</v>
@@ -15992,7 +15992,7 @@
       </c>
       <c r="H464" s="6">
         <f t="shared" si="7"/>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="I464" s="6">
         <v>1</v>
@@ -16078,11 +16078,11 @@
         <v>83</v>
       </c>
       <c r="G467">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H467" s="6">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="I467" s="6">
         <v>1</v>
@@ -16135,14 +16135,14 @@
         <v>564</v>
       </c>
       <c r="F469">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G469">
         <v>2</v>
       </c>
       <c r="H469" s="6">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="I469" s="6">
         <v>2</v>
@@ -16254,14 +16254,14 @@
         <v>83</v>
       </c>
       <c r="F473">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G473">
         <v>5</v>
       </c>
       <c r="H473" s="6">
         <f t="shared" si="7"/>
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="I473" s="6">
         <v>1</v>
@@ -16287,11 +16287,11 @@
         <v>564</v>
       </c>
       <c r="G474">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H474" s="6">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="I474" s="6">
         <v>2</v>
@@ -16311,7 +16311,7 @@
         <v>468</v>
       </c>
       <c r="E475" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F475" s="2" t="s">
         <v>564</v>
@@ -16321,7 +16321,7 @@
       </c>
       <c r="H475" s="6">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="I475" s="6">
         <v>2</v>
@@ -16347,11 +16347,11 @@
         <v>83</v>
       </c>
       <c r="G476">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H476" s="6">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I476" s="6">
         <v>1</v>
@@ -16401,7 +16401,7 @@
         <v>10</v>
       </c>
       <c r="E478" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F478" s="2" t="s">
         <v>83</v>
@@ -16411,7 +16411,7 @@
       </c>
       <c r="H478" s="6">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I478" s="6">
         <v>1</v>
@@ -16521,7 +16521,7 @@
         <v>58</v>
       </c>
       <c r="E482" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F482">
         <v>2</v>
@@ -16531,7 +16531,7 @@
       </c>
       <c r="H482" s="6">
         <f t="shared" si="7"/>
-        <v>2.3333333333333335</v>
+        <v>2</v>
       </c>
       <c r="I482" s="6">
         <v>0</v>
@@ -16611,7 +16611,7 @@
         <v>475</v>
       </c>
       <c r="E485" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F485">
         <v>5</v>
@@ -16621,7 +16621,7 @@
       </c>
       <c r="H485" s="6">
         <f t="shared" si="7"/>
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="I485" s="6">
         <v>1</v>
@@ -16641,7 +16641,7 @@
         <v>50</v>
       </c>
       <c r="E486" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F486" t="s">
         <v>83</v>
@@ -16651,7 +16651,7 @@
       </c>
       <c r="H486" s="6">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I486" s="6">
         <v>1</v>
@@ -16674,14 +16674,14 @@
         <v>2</v>
       </c>
       <c r="F487">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G487">
         <v>2</v>
       </c>
       <c r="H487" s="6">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="I487" s="6">
         <v>0</v>
@@ -16730,7 +16730,7 @@
         <v>56</v>
       </c>
       <c r="E489" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F489">
         <v>5</v>
@@ -16740,7 +16740,7 @@
       </c>
       <c r="H489" s="6">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="I489" s="6">
         <v>0</v>
@@ -16766,11 +16766,11 @@
         <v>5</v>
       </c>
       <c r="G490">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H490" s="6">
         <f t="shared" si="7"/>
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="I490" s="6">
         <v>1</v>
@@ -16823,14 +16823,14 @@
         <v>83</v>
       </c>
       <c r="F492">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G492" s="2" t="s">
         <v>83</v>
       </c>
       <c r="H492" s="6">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I492" s="6">
         <v>1</v>
@@ -16916,11 +16916,11 @@
         <v>2</v>
       </c>
       <c r="G495">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H495" s="6">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="I495" s="6">
         <v>0</v>
@@ -16940,7 +16940,7 @@
         <v>12</v>
       </c>
       <c r="E496" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F496" s="2" t="s">
         <v>83</v>
@@ -16950,7 +16950,7 @@
       </c>
       <c r="H496" s="6">
         <f t="shared" si="7"/>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="I496" s="6">
         <v>1</v>
@@ -16973,14 +16973,14 @@
         <v>5</v>
       </c>
       <c r="F497">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G497">
         <v>5</v>
       </c>
       <c r="H497" s="6">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3.6666666666666665</v>
       </c>
       <c r="I497" s="6">
         <v>0</v>
@@ -17003,14 +17003,14 @@
         <v>1</v>
       </c>
       <c r="F498" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G498" s="2">
         <v>5</v>
       </c>
       <c r="H498" s="6">
         <f t="shared" si="7"/>
-        <v>2.6666666666666665</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="I498" s="6">
         <v>0</v>
@@ -17062,14 +17062,14 @@
         <v>2</v>
       </c>
       <c r="F500" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G500" s="2" t="s">
         <v>83</v>
       </c>
       <c r="H500" s="6">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="I500" s="6">
         <v>1</v>
@@ -17089,7 +17089,7 @@
         <v>149</v>
       </c>
       <c r="E501" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F501" s="2">
         <v>2</v>
@@ -17099,7 +17099,7 @@
       </c>
       <c r="H501" s="6">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="I501" s="6">
         <v>0</v>
@@ -17148,7 +17148,7 @@
         <v>37</v>
       </c>
       <c r="E503" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F503" s="2">
         <v>5</v>
@@ -17158,7 +17158,7 @@
       </c>
       <c r="H503" s="6">
         <f t="shared" si="7"/>
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="I503" s="6">
         <v>1</v>
@@ -17238,7 +17238,7 @@
         <v>493</v>
       </c>
       <c r="E506" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F506">
         <v>5</v>
@@ -17248,7 +17248,7 @@
       </c>
       <c r="H506" s="6">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="I506" s="6">
         <v>0</v>
@@ -17328,7 +17328,7 @@
         <v>498</v>
       </c>
       <c r="E509" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F509">
         <v>5</v>
@@ -17338,7 +17338,7 @@
       </c>
       <c r="H509" s="6">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="I509" s="6">
         <v>0</v>
@@ -17361,14 +17361,14 @@
         <v>3</v>
       </c>
       <c r="F510">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G510" s="2" t="s">
         <v>83</v>
       </c>
       <c r="H510" s="6">
         <f t="shared" si="7"/>
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="I510" s="6">
         <v>1</v>
@@ -17421,14 +17421,14 @@
         <v>83</v>
       </c>
       <c r="F512">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G512" s="2" t="s">
         <v>108</v>
       </c>
       <c r="H512" s="6">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I512" s="6">
         <v>1</v>
@@ -17480,14 +17480,14 @@
         <v>108</v>
       </c>
       <c r="F514">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G514" s="2" t="s">
         <v>108</v>
       </c>
       <c r="H514" s="6">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I514" s="6">
         <v>1</v>
@@ -17513,11 +17513,11 @@
         <v>2</v>
       </c>
       <c r="G515">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H515" s="6">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="I515" s="6">
         <v>0</v>
@@ -17540,14 +17540,14 @@
         <v>2</v>
       </c>
       <c r="F516">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G516">
         <v>5</v>
       </c>
       <c r="H516" s="6">
         <f t="shared" ref="H516:H579" si="8">AVERAGE(E516:G516)</f>
-        <v>3</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="I516" s="6">
         <v>0</v>
@@ -17600,14 +17600,14 @@
         <v>2</v>
       </c>
       <c r="F518">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G518">
         <v>1</v>
       </c>
       <c r="H518" s="6">
         <f t="shared" si="8"/>
-        <v>1.6666666666666667</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="I518" s="6">
         <v>0</v>
@@ -17627,7 +17627,7 @@
         <v>114</v>
       </c>
       <c r="E519">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F519">
         <v>1</v>
@@ -17637,7 +17637,7 @@
       </c>
       <c r="H519" s="6">
         <f t="shared" si="8"/>
-        <v>1.6666666666666667</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="I519" s="6">
         <v>0</v>
@@ -17663,11 +17663,11 @@
         <v>5</v>
       </c>
       <c r="G520">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H520" s="6">
         <f t="shared" si="8"/>
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="I520" s="6">
         <v>2</v>
@@ -17687,7 +17687,7 @@
         <v>12</v>
       </c>
       <c r="E521">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F521">
         <v>5</v>
@@ -17697,7 +17697,7 @@
       </c>
       <c r="H521" s="6">
         <f t="shared" si="8"/>
-        <v>2.6666666666666665</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="I521" s="6">
         <v>0</v>
@@ -17717,7 +17717,7 @@
         <v>9</v>
       </c>
       <c r="E522">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F522" s="2" t="s">
         <v>83</v>
@@ -17727,7 +17727,7 @@
       </c>
       <c r="H522" s="6">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I522" s="6">
         <v>1</v>
@@ -17747,7 +17747,7 @@
         <v>25</v>
       </c>
       <c r="E523">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F523" s="2" t="s">
         <v>83</v>
@@ -17757,7 +17757,7 @@
       </c>
       <c r="H523" s="6">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="I523" s="6">
         <v>1</v>
@@ -17809,14 +17809,14 @@
         <v>2</v>
       </c>
       <c r="F525">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G525">
         <v>5</v>
       </c>
       <c r="H525" s="6">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="I525" s="6">
         <v>0</v>
@@ -17836,7 +17836,7 @@
         <v>200</v>
       </c>
       <c r="E526">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F526">
         <v>5</v>
@@ -17846,7 +17846,7 @@
       </c>
       <c r="H526" s="6">
         <f t="shared" si="8"/>
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="I526" s="6">
         <v>1</v>
@@ -17869,14 +17869,14 @@
         <v>108</v>
       </c>
       <c r="F527">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G527">
         <v>2</v>
       </c>
       <c r="H527" s="6">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="I527" s="6">
         <v>0</v>
@@ -17899,14 +17899,14 @@
         <v>2</v>
       </c>
       <c r="F528">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G528" s="2">
         <v>3</v>
       </c>
       <c r="H528" s="6">
         <f t="shared" si="8"/>
-        <v>2.3333333333333335</v>
+        <v>2</v>
       </c>
       <c r="I528" s="6">
         <v>0</v>
@@ -18022,11 +18022,11 @@
         <v>83</v>
       </c>
       <c r="G532" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H532" s="6">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I532" s="6">
         <v>1</v>
@@ -18076,7 +18076,7 @@
         <v>58</v>
       </c>
       <c r="E534">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F534">
         <v>5</v>
@@ -18086,7 +18086,7 @@
       </c>
       <c r="H534" s="6">
         <f t="shared" si="8"/>
-        <v>3.3333333333333335</v>
+        <v>3</v>
       </c>
       <c r="I534" s="6">
         <v>0</v>
@@ -18142,11 +18142,11 @@
         <v>564</v>
       </c>
       <c r="G536" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H536" s="6">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I536" s="6">
         <v>2</v>
@@ -18169,14 +18169,14 @@
         <v>3</v>
       </c>
       <c r="F537">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G537" s="2">
         <v>5</v>
       </c>
       <c r="H537" s="6">
         <f t="shared" si="8"/>
-        <v>3.3333333333333335</v>
+        <v>3</v>
       </c>
       <c r="I537" s="6">
         <v>0</v>
@@ -18317,14 +18317,14 @@
         <v>83</v>
       </c>
       <c r="F542">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G542" s="2" t="s">
         <v>83</v>
       </c>
       <c r="H542" s="6">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I542" s="6">
         <v>1</v>
@@ -18350,11 +18350,11 @@
         <v>1</v>
       </c>
       <c r="G543">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H543" s="6">
         <f t="shared" si="8"/>
-        <v>2.6666666666666665</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="I543" s="6">
         <v>0</v>
@@ -18440,11 +18440,11 @@
         <v>5</v>
       </c>
       <c r="G546" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H546" s="6">
         <f t="shared" si="8"/>
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="I546" s="6">
         <v>2</v>
@@ -18464,7 +18464,7 @@
         <v>28</v>
       </c>
       <c r="E547">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F547">
         <v>2</v>
@@ -18474,7 +18474,7 @@
       </c>
       <c r="H547" s="6">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="I547" s="6">
         <v>0</v>
@@ -18524,7 +18524,7 @@
         <v>25</v>
       </c>
       <c r="E549">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F549" s="2" t="s">
         <v>83</v>
@@ -18534,7 +18534,7 @@
       </c>
       <c r="H549" s="6">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="I549" s="6">
         <v>1</v>
@@ -18560,11 +18560,11 @@
         <v>564</v>
       </c>
       <c r="G550" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H550" s="6">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I550" s="6">
         <v>2</v>
@@ -18706,14 +18706,14 @@
         <v>83</v>
       </c>
       <c r="F555">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G555" s="2">
         <v>2</v>
       </c>
       <c r="H555" s="6">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="I555" s="6">
         <v>1</v>
@@ -18766,14 +18766,14 @@
         <v>83</v>
       </c>
       <c r="F557">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G557" s="2" t="s">
         <v>83</v>
       </c>
       <c r="H557" s="6">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I557" s="6">
         <v>1</v>
@@ -18793,7 +18793,7 @@
         <v>195</v>
       </c>
       <c r="E558">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F558">
         <v>5</v>
@@ -18803,7 +18803,7 @@
       </c>
       <c r="H558" s="6">
         <f t="shared" si="8"/>
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="I558" s="6">
         <v>1</v>
@@ -18829,11 +18829,11 @@
         <v>564</v>
       </c>
       <c r="G559" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H559" s="6">
         <f t="shared" si="8"/>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="I559" s="6">
         <v>2</v>
@@ -18859,11 +18859,11 @@
         <v>3</v>
       </c>
       <c r="G560" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H560" s="6">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="I560" s="6">
         <v>0</v>
@@ -18886,14 +18886,14 @@
         <v>5</v>
       </c>
       <c r="F561">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G561" s="2">
         <v>1</v>
       </c>
       <c r="H561" s="6">
         <f t="shared" si="8"/>
-        <v>2.6666666666666665</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="I561" s="6">
         <v>0</v>
@@ -18972,7 +18972,7 @@
         <v>46</v>
       </c>
       <c r="E564">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F564" s="2" t="s">
         <v>83</v>
@@ -18982,7 +18982,7 @@
       </c>
       <c r="H564" s="6">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I564" s="6">
         <v>1</v>
@@ -19181,7 +19181,7 @@
         <v>548</v>
       </c>
       <c r="E571">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F571">
         <v>2</v>
@@ -19191,7 +19191,7 @@
       </c>
       <c r="H571" s="6">
         <f t="shared" si="8"/>
-        <v>1.6666666666666667</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="I571" s="6">
         <v>0</v>
@@ -19241,7 +19241,7 @@
         <v>13</v>
       </c>
       <c r="E573">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F573">
         <v>3</v>
@@ -19251,7 +19251,7 @@
       </c>
       <c r="H573" s="6">
         <f t="shared" si="8"/>
-        <v>3.3333333333333335</v>
+        <v>3</v>
       </c>
       <c r="I573" s="6">
         <v>0</v>
@@ -19301,7 +19301,7 @@
         <v>120</v>
       </c>
       <c r="E575">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F575" s="2" t="s">
         <v>108</v>
@@ -19311,7 +19311,7 @@
       </c>
       <c r="H575" s="6">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I575" s="6">
         <v>1</v>
@@ -19337,7 +19337,7 @@
         <v>2</v>
       </c>
       <c r="G576" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H576" s="6">
         <v>2</v>
@@ -19389,7 +19389,7 @@
         <v>58</v>
       </c>
       <c r="E578" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F578">
         <v>5</v>
@@ -19399,7 +19399,7 @@
       </c>
       <c r="H578" s="6">
         <f t="shared" si="8"/>
-        <v>3.3333333333333335</v>
+        <v>3</v>
       </c>
       <c r="I578" s="6">
         <v>0</v>
@@ -19422,14 +19422,14 @@
         <v>83</v>
       </c>
       <c r="F579" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G579" s="2" t="s">
         <v>83</v>
       </c>
       <c r="H579" s="6">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I579" s="6">
         <v>1</v>
@@ -19455,11 +19455,11 @@
         <v>83</v>
       </c>
       <c r="G580">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H580" s="6">
         <f t="shared" ref="H580:H600" si="9">AVERAGE(E580:G580)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I580" s="6">
         <v>1</v>
@@ -19508,7 +19508,7 @@
         <v>555</v>
       </c>
       <c r="E582">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F582" s="2" t="s">
         <v>83</v>
@@ -19518,7 +19518,7 @@
       </c>
       <c r="H582" s="6">
         <f t="shared" si="9"/>
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="I582" s="6">
         <v>1</v>
@@ -19661,11 +19661,11 @@
         <v>5</v>
       </c>
       <c r="G587">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H587" s="6">
         <f t="shared" si="9"/>
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="I587" s="6">
         <v>1</v>
@@ -19691,11 +19691,11 @@
         <v>2</v>
       </c>
       <c r="G588">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H588" s="6">
         <f>AVERAGE(E588:G588)</f>
-        <v>2</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="I588" s="6">
         <v>0</v>
@@ -19748,14 +19748,14 @@
         <v>5</v>
       </c>
       <c r="F590">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G590">
         <v>2</v>
       </c>
       <c r="H590" s="6">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="I590" s="6">
         <v>0</v>
@@ -19778,14 +19778,14 @@
         <v>5</v>
       </c>
       <c r="F591">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G591">
         <v>1</v>
       </c>
       <c r="H591" s="6">
         <f t="shared" si="9"/>
-        <v>2.6666666666666665</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="I591" s="6">
         <v>0</v>
@@ -19811,11 +19811,11 @@
         <v>83</v>
       </c>
       <c r="G592">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H592" s="6">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="I592" s="6">
         <v>1</v>
@@ -19895,7 +19895,7 @@
         <v>9</v>
       </c>
       <c r="E595">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F595" s="2" t="s">
         <v>83</v>
@@ -19905,7 +19905,7 @@
       </c>
       <c r="H595" s="6">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I595" s="6">
         <v>1</v>
@@ -19925,7 +19925,7 @@
         <v>8</v>
       </c>
       <c r="E596">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F596">
         <v>1</v>
@@ -19935,7 +19935,7 @@
       </c>
       <c r="H596" s="6">
         <f t="shared" si="9"/>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="I596" s="6">
         <v>1</v>
@@ -19987,14 +19987,14 @@
         <v>1</v>
       </c>
       <c r="F598">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G598" s="2" t="s">
         <v>83</v>
       </c>
       <c r="H598" s="6">
         <f t="shared" si="9"/>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="I598" s="6">
         <v>1</v>
@@ -20046,14 +20046,14 @@
         <v>2</v>
       </c>
       <c r="F600">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G600" s="2" t="s">
         <v>83</v>
       </c>
       <c r="H600" s="6">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="I600" s="6">
         <v>1</v>
